--- a/05-truthful-algorithms/code/vcg.xlsx
+++ b/05-truthful-algorithms/code/vcg.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="כללי" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="מכרז חפץ אחד" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="מכפלה" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="x" vbProcedure="false">Sheet1!$B$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="x" vbProcedure="false">Sheet2!$B$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="x" vbProcedure="false">Sheet3!$B$18</definedName>
+    <definedName function="false" hidden="false" name="x" vbProcedure="false">כללי!$B$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="x" vbProcedure="false">'מכרז חפץ אחד'!$B$13</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="x" vbProcedure="false">מכפלה!$B$18</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -544,7 +544,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -571,9 +571,6 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -699,7 +696,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
@@ -708,8 +705,7 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Result" xfId="20"/>
     <cellStyle name="Result2" xfId="21"/>
-    <cellStyle name="Heading" xfId="22"/>
-    <cellStyle name="Heading1" xfId="23"/>
+    <cellStyle name="Heading1" xfId="22"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -775,17 +771,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.85"/>
@@ -798,7 +794,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="8.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="7.98"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="16" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="64" min="16" style="2" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1066,7 +1062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1076,7 +1072,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.85"/>
@@ -1089,7 +1085,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="8.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="7.98"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="16" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="64" min="16" style="2" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1368,17 +1364,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.85"/>
@@ -1391,7 +1387,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="8.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="8.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="7.98"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="16" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="64" min="16" style="2" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
